--- a/output/temp_candidate_counts.xlsx
+++ b/output/temp_candidate_counts.xlsx
@@ -384,7 +384,7 @@
         <v>89</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
